--- a/similarities/split_global/harmonic_similarity_timestamps_2.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_39</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:03.030000', '0:02:09.590000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:02:08.540000', '0:02:13.900000')]</t>
+          <t>('0:00:17.480000', '0:00:19.720000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min'], ['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:09.240000', '0:00:16.260000'), ('0:00:18.420000', '0:00:24.340000')]</t>
+          <t>('0:00:23.180000', '0:00:30.140000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000'), ('0:00:01.540000', '0:00:03.580000')]</t>
+          <t>('0:01:46.960000', '0:01:58.780000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=18.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=23.18</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=1.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=106.96</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_279</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_19</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'G', 'C:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Bb', 'C', 'F']]</t>
+          <t>['F#:7', 'B:maj', 'F#:maj', 'B:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:32.808000', '0:00:36.091000')]</t>
+          <t>('0:00:44.860000', '0:00:48')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:15.172562', '0:00:18.678775')]</t>
+          <t>('0:00:09.540000', '0:00:12.320000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=32.808']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=44.86</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=15.172562']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=9.54</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['G:hdim7/A#', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C']]</t>
+          <t>['A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:51.960000', '0:00:58.620000')]</t>
+          <t>('0:00:23.080000', '0:00:29.900000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:06.610000', '0:00:10.460000')]</t>
+          <t>('0:01:48.980000', '0:02:02.260000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=51.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=23.08</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=6.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=108.98</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:54.037586')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_20</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C:7', 'F:min', 'G#:maj']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'Ab']]</t>
+          <t>['D#:min/A#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:47.400000', '0:00:56.940000')]</t>
+          <t>('0:00:19.980000', '0:00:28.900000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:45.670000', '0:00:51.020000')]</t>
+          <t>('0:01:56.660000', '0:02:01.420000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=47.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=19.98</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=45.67']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=116.66</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>schubert-winterreise_70</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:59.500000', '0:01:08.120000')]</t>
+          <t>('0:00:19.840000', '0:00:25.560000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:51.420000', '0:00:55.540000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=59.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=19.84</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=51.42</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>jaah_10</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>jaah_47</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:maj6', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['Eb:7', 'Ab:7', 'Db:maj6', 'Db:7', 'Gb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:12.820000', '0:01:24.380000')]</t>
+          <t>('0:01:20.790000', '0:01:34.430000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000')]</t>
+          <t>('0:00:51.260000', '0:01:00.260000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=72.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-10#t=80.79</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-47#t=51.26</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_147</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:59.320000', '0:02:01.920000')]</t>
+          <t>('0:00:19.780000', '0:00:23.120000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:27.600000', '0:00:54.260000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=119.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=27.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_18</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:03.260000', '0:00:20.100000')]</t>
+          <t>('0:00:43.140000', '0:01:00.240000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:09.840000', '0:01:26.060000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=3.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=43.14</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=69.84']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_99</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:09.720000', '0:00:13')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:15.800000', '0:01:19.600000')]</t>
+          <t>('0:01:37.880000', '0:01:48.980000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=9.72</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=97.88</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>isophonics_217</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['A', 'D', 'G']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['G:maj/B', 'C:maj/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:07.360000', '0:00:19.880000')]</t>
+          <t>('0:00:42.394399', '0:00:50.173083')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:26.160000', '0:00:36.860000')]</t>
+          <t>('0:03:28.740000', '0:03:31.740000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=7.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-217#t=42.394399</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=26.16']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=208.74</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['A:7', 'D:min/A', 'A:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C:7', 'F:min', 'C:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:40.240000', '0:01:42.380000')]</t>
+          <t>('0:00:37.120000', '0:00:40.300000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:21.280000', '0:00:49.280000')]</t>
+          <t>('0:00:14.180000', '0:00:18.920000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=100.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=37.12</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=21.28']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=14.18</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['D', 'A', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:42.150000', '0:01:07.840000')]</t>
+          <t>('0:01:07.300000', '0:01:13.160000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:04.080000', '0:01:11.860000')]</t>
+          <t>('0:00:16.562199', '0:00:24.735623')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=67.3</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=64.08']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-204#t=16.562199</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_179</t>
+          <t>isophonics_261</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F/7', 'F/6', 'C']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb/2', 'Bb']]</t>
+          <t>['G/3', 'C', 'G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:32.090000', '0:00:37.538000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:40.219000', '0:00:45.818000')]</t>
+          <t>('0:00:13.079206', '0:00:17.500916')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=32.09']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-179#t=40.219']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-261#t=13.079206</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
